--- a/daten/beschwerdestatistik_reduziert.xlsx
+++ b/daten/beschwerdestatistik_reduziert.xlsx
@@ -462,18 +462,18 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WÜRTT. LEBEN</t>
+          <t>GENERALI LEBEN AG</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1857875</v>
+        <v>5273591</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -483,186 +483,186 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1048</v>
+        <v>5426</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SIGNAL IDUNA LV</t>
+          <t>NÜRNBG. ALLG.</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1504438</v>
+        <v>383567</v>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4037</v>
+        <v>1141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MÜNCHEN.VEREIN KV</t>
+          <t>R+V LEBENSVERS. AG</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>453955</v>
+        <v>5478978</v>
       </c>
       <c r="D4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4126</v>
+        <v>1022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ERGO KRANKEN</t>
+          <t>COSMOS LEBEN</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1772507</v>
+        <v>1255343</v>
       </c>
       <c r="D5" t="n">
         <v>12</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4145</v>
+        <v>5461</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INTER KV AG</t>
+          <t>VPV ALLGEMEINE VERS.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>388537</v>
+        <v>145256</v>
       </c>
       <c r="D6" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5125</v>
+        <v>4034</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIGNAL IDUNA ALLG.</t>
+          <t>ALLIANZ PRIV.KV</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>899569</v>
+        <v>2794821</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1028</v>
+        <v>5085</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BALOISE LEBEN</t>
+          <t>HDI VERSICHERUNG</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>674050</v>
+        <v>393333</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5581</v>
+        <v>4002</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ADLER VERSICHERUNG AG</t>
+          <t>SIGNAL IDUNA KRANKEN</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>111100</v>
+        <v>2502385</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5498</v>
+        <v>1194</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ADAC VERSICHERUNG</t>
+          <t>LPV LEBENSVERSICHERUNG</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8147180</v>
+        <v>1082025</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1312</v>
+        <v>1342</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HANNOVERSCHE LV AG</t>
+          <t>MÜNCHENER VEREIN LEBEN</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1095779</v>
+        <v>127509</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -672,39 +672,39 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4118</v>
+        <v>5402</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CONCORDIA KRANKEN</t>
+          <t>LVM SACH</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>126135</v>
+        <v>967132</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>4121</v>
+        <v>4043</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ENVIVAS KRANKEN</t>
+          <t>HALLESCHE KRANKEN</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>437498</v>
+        <v>852211</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -714,123 +714,123 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5312</v>
+        <v>1184</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ALLIANZ VERS.</t>
+          <t>ERGO LEBEN AG</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4321111</v>
+        <v>3502091</v>
       </c>
       <c r="D14" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1020</v>
+        <v>4131</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AXA LEBEN</t>
+          <t>DEVK KRANKENVERS.-AG</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2487000</v>
+        <v>472852</v>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1115</v>
+        <v>4109</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CREDIT LIFE AG</t>
+          <t>LVM KRANKEN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>806134</v>
+        <v>409228</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4043</v>
+        <v>1025</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HALLESCHE KRANKEN</t>
+          <t>DEVK DT. EISENBAHN LV</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>852211</v>
+        <v>471088</v>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1160</v>
+        <v>5324</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VPV LEBEN</t>
+          <t>BAYER.VERS.VERB.AG</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>591182</v>
+        <v>1104136</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GENERALI LEBEN AG</t>
+          <t>CONDOR LEBEN</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5273591</v>
+        <v>239239</v>
       </c>
       <c r="D19" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -840,39 +840,39 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5798</v>
+        <v>1047</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RHEINLAND VERS. AG</t>
+          <t>IDEAL LEBEN</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>83793</v>
+        <v>601887</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HANSEMERKUR LEBEN</t>
+          <t>CREDIT LIFE AG</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>289571</v>
+        <v>806134</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -882,39 +882,39 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5061</v>
+        <v>1136</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MANNHEIMER VERS.</t>
+          <t>DEVK ALLG. LEBEN</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>55735</v>
+        <v>714483</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>4045</v>
+        <v>4108</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UNIVERSA KRANKEN</t>
+          <t>UNION KRANKENVERS.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>361351</v>
+        <v>1358641</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -924,60 +924,60 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5790</v>
+        <v>1147</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TARGO VERSICHERUNG</t>
+          <t>NÜRNBG. LEBEN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>116951</v>
+        <v>2400508</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4028</v>
+        <v>1140</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DEBEKA KRANKEN</t>
+          <t>VICTORIA LEBEN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4224598</v>
+        <v>744127</v>
       </c>
       <c r="D25" t="n">
-        <v>124</v>
+        <v>10</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5405</v>
+        <v>5342</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ALTE LEIPZIGER VERS.</t>
+          <t>GENERALI  DEUTSCHLAND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>60253</v>
+        <v>3715742</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -987,18 +987,18 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5342</v>
+        <v>5780</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">GENERALI  DEUTSCHLAND </t>
+          <t>INTERRISK VERS.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3715742</v>
+        <v>538740</v>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1008,18 +1008,18 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1007</v>
+        <v>1153</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ALTE LEIPZIGER LEBEN</t>
+          <t>SPARK.-VERS.SACHS.LEB</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1654640</v>
+        <v>608297</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1029,18 +1029,18 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IDEAL LEBEN</t>
+          <t>FRANKFURT MÜNCHENER</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>601887</v>
+        <v>218579</v>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1050,39 +1050,39 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5484</v>
+        <v>4144</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>VOLKSWOHL-BUND SACH</t>
+          <t>HANSEMERKUR KV AG</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>153185</v>
+        <v>1574466</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1177</v>
+        <v>1083</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CONCORDIA OECO LEBEN</t>
+          <t>PROV.NORDWEST LEBEN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>163540</v>
+        <v>1573701</v>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1092,81 +1092,81 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5426</v>
+        <v>1011</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NÜRNBG. ALLG.</t>
+          <t>BARMENIA LEBEN</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>383567</v>
+        <v>269477</v>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5455</v>
+        <v>1090</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ARAG ALLG. VERS.</t>
+          <t>SWISS LIFE AG (CH)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20494863</v>
+        <v>1018226</v>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5562</v>
+        <v>1055</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ERGO DIREKT</t>
+          <t>HUK-COBURG-LEBEN</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>207984</v>
+        <v>649780</v>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>4139</v>
+        <v>4037</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WÜRTT. KRANKEN</t>
+          <t>MÜNCHEN.VEREIN KV</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>468065</v>
+        <v>453955</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1176,18 +1176,18 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4039</v>
+        <v>4045</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SÜDDEUTSCHE KRANKEN</t>
+          <t>UNIVERSA KRANKEN</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>639245</v>
+        <v>361351</v>
       </c>
       <c r="D36" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1197,102 +1197,102 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4044</v>
+        <v>5583</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DKV AG</t>
+          <t>PVAG POLIZEIVERS.</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4310059</v>
+        <v>325894</v>
       </c>
       <c r="D37" t="n">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1158</v>
+        <v>4126</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>HEIDELBERGER LV</t>
+          <t>ERGO KRANKEN</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>335788</v>
+        <v>1772507</v>
       </c>
       <c r="D38" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5085</v>
+        <v>1033</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>HDI VERSICHERUNG</t>
+          <t>HDI LEBEN AG</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>393333</v>
+        <v>1812515</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1318</v>
+        <v>5061</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AIOI NISSAY DOWA LIFE INS.</t>
+          <t>MANNHEIMER VERS.</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>154421</v>
+        <v>55735</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>STUTTGARTER LEBEN</t>
+          <t>GOTHAER LEBEN AG</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>523610</v>
+        <v>1175770</v>
       </c>
       <c r="D41" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1302,102 +1302,102 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4001</v>
+        <v>5586</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CONTINENTALE KRANKEN</t>
+          <t>STUTTGARTER VERS.</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1308630</v>
+        <v>547170</v>
       </c>
       <c r="D42" t="n">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1022</v>
+        <v>5078</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>COSMOS LEBEN</t>
+          <t>JANITOS VERSICHERUNG</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1255343</v>
+        <v>169213</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1011</v>
+        <v>4145</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>BARMENIA LEBEN</t>
+          <t>INTER KV AG</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>269477</v>
+        <v>388537</v>
       </c>
       <c r="D44" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4147</v>
+        <v>5036</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BARMENIA KV AG</t>
+          <t>SV SPARK.VERSICHER.</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1803967</v>
+        <v>274596</v>
       </c>
       <c r="D45" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5549</v>
+        <v>5438</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DEBEKA ALLGEMEINE</t>
+          <t>R+V ALLGEMEINE VERS.</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1987960</v>
+        <v>1358847</v>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1407,18 +1407,18 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1184</v>
+        <v>1318</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ERGO LEBEN AG</t>
+          <t>AIOI NISSAY DOWA LIFE INS.</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3502091</v>
+        <v>154421</v>
       </c>
       <c r="D47" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1428,39 +1428,39 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1099</v>
+        <v>5455</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VOLKSWOHL-BUND LEBEN</t>
+          <t>ARAG ALLG. VERS.</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1500376</v>
+        <v>20494863</v>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1140</v>
+        <v>1337</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>VICTORIA LEBEN</t>
+          <t>LIFESTYLE LV AG</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>744127</v>
+        <v>368591</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1470,123 +1470,123 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5552</v>
+        <v>1114</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>COSMOS VERS.</t>
+          <t>HANSEMERKUR LEBEN</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>154653</v>
+        <v>289571</v>
       </c>
       <c r="D50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4131</v>
+        <v>1028</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DEVK KRANKENVERS.-AG</t>
+          <t>BALOISE LEBEN</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>472852</v>
+        <v>674050</v>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1109</v>
+        <v>5790</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MECKLENBURG. LEBEN</t>
+          <t>TARGO VERSICHERUNG</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>164672</v>
+        <v>116951</v>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>5340</v>
+        <v>1107</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CONTINENTALE SACHVERS.</t>
+          <t>EUROPA LEBEN</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>568393</v>
+        <v>491645</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1033</v>
+        <v>4134</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>HDI LEBEN AG</t>
+          <t>BAYERISCHE BEAMTEN K</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1812515</v>
+        <v>1146039</v>
       </c>
       <c r="D54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>5513</v>
+        <v>5340</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DEVK ALLG. VERS.</t>
+          <t>CONTINENTALE SACHVERS.</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>971164</v>
+        <v>568393</v>
       </c>
       <c r="D55" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1596,123 +1596,123 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1006</v>
+        <v>4118</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALLIANZ LEBEN</t>
+          <t>CONCORDIA KRANKEN</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>11437355</v>
+        <v>126135</v>
       </c>
       <c r="D56" t="n">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1151</v>
+        <v>5405</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ERGO VORSORGE LEBEN</t>
+          <t>ALTE LEIPZIGER VERS.</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1386092</v>
+        <v>60253</v>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1147</v>
+        <v>5476</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NÜRNBG. LEBEN</t>
+          <t>WWK ALLGEMEINE VERS.</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2400508</v>
+        <v>318990</v>
       </c>
       <c r="D58" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1055</v>
+        <v>4004</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>HUK-COBURG-LEBEN</t>
+          <t>GENERALI KRANKEN AG</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>649780</v>
+        <v>1799563</v>
       </c>
       <c r="D59" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4116</v>
+        <v>1139</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>R+V KRANKEN</t>
+          <t>PROXALTO LEBEN AG</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1468557</v>
+        <v>3209063</v>
       </c>
       <c r="D60" t="n">
-        <v>10</v>
+        <v>470</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>5210</v>
+        <v>5484</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DIALOG VERSICHERUNG AG</t>
+          <t>VOLKSWOHL-BUND SACH</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>519560</v>
+        <v>153185</v>
       </c>
       <c r="D61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1722,207 +1722,207 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4144</v>
+        <v>1006</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>HANSEMERKUR KV AG</t>
+          <t>ALLIANZ LEBEN</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>1574466</v>
+        <v>11437355</v>
       </c>
       <c r="D62" t="n">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>5633</v>
+        <v>1157</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BALOISE SACH AG</t>
+          <t>SKANDIA LEBEN</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>443700</v>
+        <v>209849</v>
       </c>
       <c r="D63" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>5078</v>
+        <v>1345</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>JANITOS VERSICHERUNG</t>
+          <t>ÖFF. LEBEN SA</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>169213</v>
+        <v>284878</v>
       </c>
       <c r="D64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>4143</v>
+        <v>5210</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>VRK KV AG</t>
+          <t>DIALOG VERSICHERUNG AG</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>166326</v>
+        <v>519560</v>
       </c>
       <c r="D65" t="n">
         <v>3</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>4125</v>
+        <v>5552</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NÜRNBG. KRANKEN</t>
+          <t>COSMOS VERS.</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>371417</v>
+        <v>154653</v>
       </c>
       <c r="D66" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>4034</v>
+        <v>1109</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t xml:space="preserve">ALLIANZ PRIV.KV </t>
+          <t>MECKLENBURG. LEBEN</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2794821</v>
+        <v>164672</v>
       </c>
       <c r="D67" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1136</v>
+        <v>5858</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DEVK ALLG. LEBEN</t>
+          <t>GOTHAER ALLGEMEINE AG</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>714483</v>
+        <v>655229</v>
       </c>
       <c r="D68" t="n">
         <v>4</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>5438</v>
+        <v>4146</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>R+V ALLGEMEINE VERS.</t>
+          <t>OTTONOVA KRANKEN</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1358847</v>
+        <v>26122</v>
       </c>
       <c r="D69" t="n">
         <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1062</v>
+        <v>5312</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>LEBENSVERS. VON 1871</t>
+          <t>ALLIANZ VERS.</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>643902</v>
+        <v>4321111</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1132</v>
+        <v>1164</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TARGO LEBEN AG</t>
+          <t>NEUE LEBEN LEBENSVERS</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1851738</v>
+        <v>848760</v>
       </c>
       <c r="D71" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1932,18 +1932,18 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1083</v>
+        <v>1005</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PROV.NORDWEST LEBEN</t>
+          <t>WÜRTT. LEBEN</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1573701</v>
+        <v>1857875</v>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1953,60 +1953,60 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1157</v>
+        <v>4121</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SKANDIA LEBEN</t>
+          <t>ENVIVAS KRANKEN</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>209849</v>
+        <v>437498</v>
       </c>
       <c r="D73" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>4095</v>
+        <v>1151</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>AXA KRANKEN</t>
+          <t>ERGO VORSORGE LEBEN</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1734263</v>
+        <v>1386092</v>
       </c>
       <c r="D74" t="n">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1164</v>
+        <v>1023</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NEUE LEBEN LEBENSVERS</t>
+          <t>DEBEKA LEBEN</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>848760</v>
+        <v>3190195</v>
       </c>
       <c r="D75" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2016,60 +2016,60 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1023</v>
+        <v>4011</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DEBEKA LEBEN</t>
+          <t>LANDESKRANKENHILFE</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3190195</v>
+        <v>329419</v>
       </c>
       <c r="D76" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1091</v>
+        <v>5310</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SV SPARKASSENVERS.</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1541171</v>
+        <v>110284</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DIREKTE LEBEN AG</t>
+          <t>LVM LEBEN</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>134411</v>
+        <v>815587</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2079,18 +2079,18 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1138</v>
+        <v>1091</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ZURICH DTSCH. HEROLD</t>
+          <t>SV SPARKASSENVERS.</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2796325</v>
+        <v>1541171</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2100,165 +2100,165 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>5862</v>
+        <v>1020</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>VHV ALLGEMEINE VERS.</t>
+          <t>AXA LEBEN</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>495291</v>
+        <v>2487000</v>
       </c>
       <c r="D80" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>4011</v>
+        <v>1081</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>LANDESKRANKENHILFE</t>
+          <t>PROV. LEBEN HANNOVER</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>329419</v>
+        <v>725932</v>
       </c>
       <c r="D81" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>4119</v>
+        <v>5546</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>GOTHAER KV AG</t>
+          <t>INTER ALLG. VERS.</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>695617</v>
+        <v>71899</v>
       </c>
       <c r="D82" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1035</v>
+        <v>4095</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>FRANKFURT MÜNCHENER</t>
+          <t>AXA KRANKEN</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>218579</v>
+        <v>1734263</v>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>5586</v>
+        <v>4001</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>STUTTGARTER VERS.</t>
+          <t>CONTINENTALE KRANKEN</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>547170</v>
+        <v>1308630</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>4109</v>
+        <v>5549</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>LVM KRANKEN</t>
+          <t>DEBEKA ALLGEMEINE</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>409228</v>
+        <v>1987960</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>4108</v>
+        <v>1180</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>UNION KRANKENVERS.</t>
+          <t>DT. ÄRZTEVERSICHERUNG</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1358641</v>
+        <v>240627</v>
       </c>
       <c r="D86" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1194</v>
+        <v>1103</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>LPV LEBENSVERSICHERUNG</t>
+          <t>WWK LEBEN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1082025</v>
+        <v>1006703</v>
       </c>
       <c r="D87" t="n">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2268,120 +2268,120 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1103</v>
+        <v>5581</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>WWK LEBEN</t>
+          <t>ADLER VERSICHERUNG AG</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1006703</v>
+        <v>111100</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1343</v>
+        <v>5095</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ENTIS LV AG</t>
+          <t>PROVINZIAL VERSICHERUNG AG</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>66234</v>
+        <v>2993528</v>
       </c>
       <c r="D89" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1013</v>
+        <v>5798</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BAYER. BEAMTEN LEBEN</t>
+          <t>RHEINLAND VERS. AG</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>134483</v>
+        <v>83793</v>
       </c>
       <c r="D90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5036</v>
+        <v>4028</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SV SPARK.VERSICHER.</t>
+          <t>DEBEKA KRANKEN</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>274596</v>
+        <v>4224598</v>
       </c>
       <c r="D91" t="n">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>5515</v>
+        <v>4039</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AXA VERS.</t>
+          <t>SÜDDEUTSCHE KRANKEN</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>730738</v>
+        <v>639245</v>
       </c>
       <c r="D92" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1054</v>
+        <v>1128</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>LANDESLEBENSHILFE</t>
+          <t>ITZEHOER LEBEN</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>11837</v>
+        <v>71098</v>
       </c>
       <c r="D93" t="n">
         <v>2</v>
@@ -2394,15 +2394,15 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1128</v>
+        <v>1062</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ITZEHOER LEBEN</t>
+          <t>LEBENSVERS. VON 1871</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>71098</v>
+        <v>643902</v>
       </c>
       <c r="D94" t="n">
         <v>2</v>
@@ -2415,18 +2415,18 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1342</v>
+        <v>1082</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MÜNCHENER VEREIN LEBEN</t>
+          <t>PROV.RHEINLAND LEBEN</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>127509</v>
+        <v>1103916</v>
       </c>
       <c r="D95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2436,144 +2436,144 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1153</v>
+        <v>5686</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SPARK.-VERS.SACHS.LEB</t>
+          <t>NÜRNBG. BEAMTEN ALLG.</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>608297</v>
+        <v>54049</v>
       </c>
       <c r="D96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1180</v>
+        <v>4143</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DT. ÄRZTEVERSICHERUNG</t>
+          <t>VRK KV AG</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>240627</v>
+        <v>166326</v>
       </c>
       <c r="D97" t="n">
         <v>3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>4134</v>
+        <v>1312</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>BAYERISCHE BEAMTEN K</t>
+          <t>HANNOVERSCHE LV AG</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1146039</v>
+        <v>1095779</v>
       </c>
       <c r="D98" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>4112</v>
+        <v>5562</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ARAG KRANKEN</t>
+          <t>ERGO DIREKT</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>704413</v>
+        <v>207984</v>
       </c>
       <c r="D99" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>5780</v>
+        <v>4147</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INTERRISK VERS.</t>
+          <t>BARMENIA KV AG</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>538740</v>
+        <v>1803967</v>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1090</v>
+        <v>5513</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SWISS LIFE AG (CH)</t>
+          <t>DEVK ALLG. VERS.</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1018226</v>
+        <v>971164</v>
       </c>
       <c r="D101" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>5583</v>
+        <v>5498</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>PVAG POLIZEIVERS.</t>
+          <t>ADAC VERSICHERUNG</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>325894</v>
+        <v>8147180</v>
       </c>
       <c r="D102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2583,39 +2583,39 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>5686</v>
+        <v>4125</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>NÜRNBG. BEAMTEN ALLG.</t>
+          <t>NÜRNBG. KRANKEN</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>54049</v>
+        <v>371417</v>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1337</v>
+        <v>1177</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>LIFESTYLE LV AG</t>
+          <t>CONCORDIA OECO LEBEN</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>368591</v>
+        <v>163540</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2625,39 +2625,39 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>5472</v>
+        <v>4139</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ERGO VERSICHERUNG</t>
+          <t>WÜRTT. KRANKEN</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1596077</v>
+        <v>468065</v>
       </c>
       <c r="D105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1025</v>
+        <v>1162</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DEVK DT. EISENBAHN LV</t>
+          <t>MYLIFE DEUTSCHLAND</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>471088</v>
+        <v>121752</v>
       </c>
       <c r="D106" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2667,57 +2667,57 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>5546</v>
+        <v>1158</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INTER ALLG. VERS.</t>
+          <t>HEIDELBERGER LV</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>71899</v>
+        <v>335788</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>5095</v>
+        <v>1123</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>PROVINZIAL VERSICHERUNG AG</t>
+          <t>DIREKTE LEBEN AG</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2993528</v>
+        <v>134411</v>
       </c>
       <c r="D108" t="n">
         <v>1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5476</v>
+        <v>5125</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>WWK ALLGEMEINE VERS.</t>
+          <t>SIGNAL IDUNA ALLG.</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>318990</v>
+        <v>899569</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2730,60 +2730,60 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5324</v>
+        <v>4117</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BAYER.VERS.VERB.AG</t>
+          <t>HUK-COBURG KRANKEN</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>1104136</v>
+        <v>1139380</v>
       </c>
       <c r="D110" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5858</v>
+        <v>1054</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>GOTHAER ALLGEMEINE AG</t>
+          <t>LANDESLEBENSHILFE</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>655229</v>
+        <v>11837</v>
       </c>
       <c r="D111" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>CONDOR LEBEN</t>
+          <t>ALTE LEIPZIGER LEBEN</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>239239</v>
+        <v>1654640</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2793,39 +2793,39 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>4004</v>
+        <v>5633</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>GENERALI KRANKEN AG</t>
+          <t>BALOISE SACH AG</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1799563</v>
+        <v>443700</v>
       </c>
       <c r="D113" t="n">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>LVM LEBEN</t>
+          <t>STUTTGARTER LEBEN</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>815587</v>
+        <v>523610</v>
       </c>
       <c r="D114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -2835,39 +2835,39 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>4117</v>
+        <v>1335</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>HUK-COBURG KRANKEN</t>
+          <t>CONTINENTALE LV AG</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1139380</v>
+        <v>864707</v>
       </c>
       <c r="D115" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>R+V LEBENSVERS. AG</t>
+          <t>VPV LEBEN</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5478978</v>
+        <v>591182</v>
       </c>
       <c r="D116" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -2877,165 +2877,165 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1345</v>
+        <v>4044</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ÖFF. LEBEN SA</t>
+          <t>DKV AG</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>284878</v>
+        <v>4310059</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>4142</v>
+        <v>1089</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ALTE OLDENBURGER AG</t>
+          <t>SÜDDT.LEBEN</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>157672</v>
+        <v>46105</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>4002</v>
+        <v>5862</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SIGNAL IDUNA KRANKEN</t>
+          <t>VHV ALLGEMEINE VERS.</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2502385</v>
+        <v>495291</v>
       </c>
       <c r="D119" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>1089</v>
+        <v>5317</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SÜDDT.LEBEN</t>
+          <t>BARMENIA ALLG. VERS.</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>46105</v>
+        <v>199373</v>
       </c>
       <c r="D120" t="n">
         <v>1</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>1107</v>
+        <v>4112</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>EUROPA LEBEN</t>
+          <t>ARAG KRANKEN</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>491645</v>
+        <v>704413</v>
       </c>
       <c r="D121" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>1335</v>
+        <v>5375</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>CONTINENTALE LV AG</t>
+          <t>HUK-COBURG UNTER.</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>864707</v>
+        <v>1162528</v>
       </c>
       <c r="D122" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>5402</v>
+        <v>4119</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>LVM SACH</t>
+          <t>GOTHAER KV AG</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>967132</v>
+        <v>695617</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>5375</v>
+        <v>5472</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>HUK-COBURG UNTER.</t>
+          <t>ERGO VERSICHERUNG</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>1162528</v>
+        <v>1596077</v>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3045,102 +3045,102 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>5317</v>
+        <v>4142</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>BARMENIA ALLG. VERS.</t>
+          <t>ALTE OLDENBURGER AG</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>199373</v>
+        <v>157672</v>
       </c>
       <c r="D125" t="n">
         <v>1</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>1082</v>
+        <v>4116</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PROV.RHEINLAND LEBEN</t>
+          <t>R+V KRANKEN</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1103916</v>
+        <v>1468557</v>
       </c>
       <c r="D126" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Kranken</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>5461</v>
+        <v>1343</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>VPV ALLGEMEINE VERS.</t>
+          <t>ENTIS LV AG</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>145256</v>
+        <v>66234</v>
       </c>
       <c r="D127" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>1108</v>
+        <v>5515</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>GOTHAER LEBEN AG</t>
+          <t>AXA VERS.</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1175770</v>
+        <v>730738</v>
       </c>
       <c r="D128" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Leben</t>
+          <t>Unfall</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>1139</v>
+        <v>1048</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>PROXALTO LEBEN AG</t>
+          <t>SIGNAL IDUNA LV</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3209063</v>
+        <v>1504438</v>
       </c>
       <c r="D129" t="n">
-        <v>470</v>
+        <v>11</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3150,18 +3150,18 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>1081</v>
+        <v>1015</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PROV. LEBEN HANNOVER</t>
+          <t>BAYERN-VERS.</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>725932</v>
+        <v>2281793</v>
       </c>
       <c r="D130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3171,18 +3171,18 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>1162</v>
+        <v>1013</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MYLIFE DEUTSCHLAND</t>
+          <t>BAYER. BEAMTEN LEBEN</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>121752</v>
+        <v>134483</v>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3192,18 +3192,18 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>1015</v>
+        <v>1132</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>BAYERN-VERS.</t>
+          <t>TARGO LEBEN AG</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2281793</v>
+        <v>1851738</v>
       </c>
       <c r="D132" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3213,43 +3213,43 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>4146</v>
+        <v>1138</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>OTTONOVA KRANKEN</t>
+          <t>ZURICH DTSCH. HEROLD</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>26122</v>
+        <v>2796325</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Kranken</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>5310</v>
+        <v>1099</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>VOLKSWOHL-BUND LEBEN</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>110284</v>
+        <v>1500376</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Unfall</t>
+          <t>Leben</t>
         </is>
       </c>
     </row>
